--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="762" documentId="11_F25DC773A252ABEACE02EC94FBDA4DE45ADE58A3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A58F3D9E-7218-48A1-AE16-B686FA0035F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11503C4-5402-4CEB-BD92-6F57EBB41AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>Tank color:</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Lots of tanks and trees</t>
+  </si>
+  <si>
+    <t>Town</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,6 +1934,14 @@
         <v>105</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11503C4-5402-4CEB-BD92-6F57EBB41AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD63144-7D48-46A6-930A-082C84D0A6FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
   <si>
     <t>Tank color:</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Town</t>
+  </si>
+  <si>
+    <t>1 + 2 + 3 + 6 + 13</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,6 +1941,9 @@
       <c r="A22" s="10">
         <v>21</v>
       </c>
+      <c r="B22" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="C22" s="22" t="s">
         <v>106</v>
       </c>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD63144-7D48-46A6-930A-082C84D0A6FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87819AE0-0AB8-4805-AAF3-7CEE111A48FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Tank color:</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>1 + 2 + 3 + 6 + 13</t>
+  </si>
+  <si>
+    <t>3 + 6 + 13 + 18 + 20</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,6 +1951,14 @@
         <v>106</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87819AE0-0AB8-4805-AAF3-7CEE111A48FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E671CEDB-676D-4FB2-922A-8243AB267818}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
   <si>
     <t>Tank color:</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>3 + 6 + 13 + 18 + 20</t>
+  </si>
+  <si>
+    <t>New 9 cop</t>
+  </si>
+  <si>
+    <t>9 * 3</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,6 +1965,17 @@
         <v>108</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E671CEDB-676D-4FB2-922A-8243AB267818}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B073A-3C73-45D7-B076-F4376C727978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>Tank color:</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>9 * 3</t>
+  </si>
+  <si>
+    <t>3 * 2 + 6 * 2 + 9 * 2</t>
   </si>
 </sst>
 </file>
@@ -1726,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,6 +1979,14 @@
         <v>109</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B073A-3C73-45D7-B076-F4376C727978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407A010E-E46F-4192-8B62-AC6FE96C5D14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>Tank color:</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>3 * 2 + 6 * 2 + 9 * 2</t>
+  </si>
+  <si>
+    <t>Tank station</t>
+  </si>
+  <si>
+    <t>9 * 2 + 15 * 3 + 16 + 20</t>
   </si>
 </sst>
 </file>
@@ -1729,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,6 +1993,17 @@
         <v>111</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407A010E-E46F-4192-8B62-AC6FE96C5D14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A5674-FC1A-4B9F-9846-D9B554BC7313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>Tank color:</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>9 * 2 + 15 * 3 + 16 + 20</t>
+  </si>
+  <si>
+    <t>New 7 patrol</t>
+  </si>
+  <si>
+    <t>7 * 3</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,6 +2010,17 @@
         <v>112</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A5674-FC1A-4B9F-9846-D9B554BC7313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D7B69-6477-4484-BCE4-A14A40202741}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
   <si>
     <t>Tank color:</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>7 * 3</t>
+  </si>
+  <si>
+    <t>6 + 7 * 2 + 9 * 3</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,6 +1131,9 @@
       <c r="J6" s="10">
         <v>9</v>
       </c>
+      <c r="K6" s="10">
+        <v>23</v>
+      </c>
       <c r="L6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1367,6 +1373,9 @@
       </c>
       <c r="J12" s="10">
         <v>7</v>
+      </c>
+      <c r="K12" s="10">
+        <v>26</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>42</v>
@@ -1741,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,6 +2030,14 @@
         <v>114</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D7B69-6477-4484-BCE4-A14A40202741}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA79A03-530B-4704-BB0F-822A09B8EA63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
   <si>
     <t>Tank color:</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>6 + 7 * 2 + 9 * 3</t>
+  </si>
+  <si>
+    <t>New 4 sleepyhead</t>
+  </si>
+  <si>
+    <t>4 * 4</t>
   </si>
 </sst>
 </file>
@@ -861,7 +867,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1100,9 @@
       <c r="J5" s="10">
         <v>4</v>
       </c>
+      <c r="K5" s="10">
+        <v>28</v>
+      </c>
       <c r="L5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1750,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,6 +2047,17 @@
         <v>116</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA79A03-530B-4704-BB0F-822A09B8EA63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C605AA-FC40-4D72-B908-484489A78B95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
   <si>
     <t>Tank color:</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>4 * 4</t>
+  </si>
+  <si>
+    <t>2 + 4 * 2 + 6 + 15</t>
   </si>
 </sst>
 </file>
@@ -1759,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,6 +2061,14 @@
         <v>117</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C605AA-FC40-4D72-B908-484489A78B95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1632817B-5A8C-4516-8B30-F9C37536B772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
   <si>
     <t>Tank color:</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>2 + 4 * 2 + 6 + 15</t>
+  </si>
+  <si>
+    <t>4 * 2 + 7 * 2 + 9 * 8</t>
+  </si>
+  <si>
+    <t>Police acedemy</t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,6 +2075,17 @@
         <v>119</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1632817B-5A8C-4516-8B30-F9C37536B772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5467DD0-BB57-45BB-9CE2-B02F75C94823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
   <si>
     <t>Tank color:</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Police acedemy</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>2 + 3 + 6 + 9 + 13</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,6 +2092,17 @@
         <v>121</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5467DD0-BB57-45BB-9CE2-B02F75C94823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303FE8BC-DDE1-49E0-BF93-0F9632DAE8D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>Tank color:</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>2 + 3 + 6 + 9 + 13</t>
+  </si>
+  <si>
+    <t>Factory, new 10</t>
+  </si>
+  <si>
+    <t>3 * x + 10 * 2</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,6 +2109,17 @@
         <v>122</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303FE8BC-DDE1-49E0-BF93-0F9632DAE8D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDDBDD-83AA-493A-A234-D735CA1C5647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
     <t>Tank color:</t>
   </si>
@@ -395,10 +395,16 @@
     <t>2 + 3 + 6 + 9 + 13</t>
   </si>
   <si>
-    <t>Factory, new 10</t>
-  </si>
-  <si>
     <t>3 * x + 10 * 2</t>
+  </si>
+  <si>
+    <t>4 + 10 * 3 + 18</t>
+  </si>
+  <si>
+    <t>Factory, new 10 rambo</t>
+  </si>
+  <si>
+    <t>New 11 rocketeer</t>
   </si>
 </sst>
 </file>
@@ -888,7 +894,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,6 +1254,9 @@
       <c r="J8" s="10">
         <v>11</v>
       </c>
+      <c r="K8" s="10">
+        <v>34</v>
+      </c>
       <c r="L8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1485,6 +1494,9 @@
       </c>
       <c r="J14" s="10">
         <v>10</v>
+      </c>
+      <c r="K14" s="10">
+        <v>32</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>70</v>
@@ -1780,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,10 +2126,26 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>124</v>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDDBDD-83AA-493A-A234-D735CA1C5647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37530EB-1671-40A3-A472-74ABA8385073}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
   <si>
     <t>Tank color:</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>New 11 rocketeer</t>
+  </si>
+  <si>
+    <t>1 * 3 + 11 * 4</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,6 +2147,9 @@
       <c r="A35" s="10">
         <v>34</v>
       </c>
+      <c r="B35" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="C35" s="22" t="s">
         <v>127</v>
       </c>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37530EB-1671-40A3-A472-74ABA8385073}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC44109-3C1B-4693-99C0-F7127A0B80CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
   <si>
     <t>Tank color:</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t>1 * 3 + 11 * 4</t>
+  </si>
+  <si>
+    <t>New 11 invisible</t>
+  </si>
+  <si>
+    <t>New 5 sub</t>
+  </si>
+  <si>
+    <t>7 + 9 + 10 * 2 + 11 * 2 + 15 * x</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,6 +2163,45 @@
         <v>127</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC44109-3C1B-4693-99C0-F7127A0B80CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F67D2F0-D918-42D5-A2C9-11638D146B41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,13 +410,13 @@
     <t>1 * 3 + 11 * 4</t>
   </si>
   <si>
-    <t>New 11 invisible</t>
-  </si>
-  <si>
     <t>New 5 sub</t>
   </si>
   <si>
     <t>7 + 9 + 10 * 2 + 11 * 2 + 15 * x</t>
+  </si>
+  <si>
+    <t>3 * x + 5 * 6</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1225,9 @@
       <c r="J7" s="10">
         <v>5</v>
       </c>
+      <c r="K7" s="10">
+        <v>36</v>
+      </c>
       <c r="L7" s="15" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +1810,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,13 +2171,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>36</v>
       </c>
+      <c r="B37" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="C37" s="22" t="s">
         <v>129</v>
       </c>
@@ -2187,9 +2193,6 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>38</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F67D2F0-D918-42D5-A2C9-11638D146B41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09812C79-B634-4E2E-8E96-3418E0E1AB0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
   <si>
     <t>Tank color:</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>3 * x + 5 * 6</t>
+  </si>
+  <si>
+    <t>2 + 4 + 11 + 16 + 18 + 20</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1813,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,6 +2192,9 @@
       <c r="A38" s="10">
         <v>37</v>
       </c>
+      <c r="B38" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09812C79-B634-4E2E-8E96-3418E0E1AB0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1219310B-8550-4535-933B-C9D1B7808F7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="135">
   <si>
     <t>Tank color:</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>2 + 4 + 11 + 16 + 18 + 20</t>
+  </si>
+  <si>
+    <t>New 8 laser</t>
+  </si>
+  <si>
+    <t>8 * 2 + 9 * 4</t>
   </si>
 </sst>
 </file>
@@ -908,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,6 +1686,9 @@
       <c r="J18" s="10">
         <v>8</v>
       </c>
+      <c r="K18" s="10">
+        <v>38</v>
+      </c>
       <c r="L18" s="15" t="s">
         <v>56</v>
       </c>
@@ -1812,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,6 +2209,12 @@
       <c r="A39" s="10">
         <v>38</v>
       </c>
+      <c r="B39" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1219310B-8550-4535-933B-C9D1B7808F7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C275C8-7C2A-41E3-AC9B-B7AB9AC2F9FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
   <si>
     <t>Tank color:</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>8 * 2 + 9 * 4</t>
+  </si>
+  <si>
+    <t>3 + 6 + 8 + 10 * 2 + 13 + 20 * x</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,14 +1824,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="I22:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="22" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2220,6 +2223,9 @@
       <c r="A40" s="10">
         <v>39</v>
       </c>
+      <c r="B40" s="22" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C275C8-7C2A-41E3-AC9B-B7AB9AC2F9FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F49BD2-FF57-4B5C-BB7B-25DDE41D3851}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
   <si>
     <t>Tank color:</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>3 + 6 + 8 + 10 * 2 + 13 + 20 * x</t>
+  </si>
+  <si>
+    <t>Very hard</t>
+  </si>
+  <si>
+    <t>3 * x + 5 + 8 + 10 + 11 + 20 * x</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1831,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="I22:M32"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,6 +2237,12 @@
       <c r="A41" s="10">
         <v>40</v>
       </c>
+      <c r="B41" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F49BD2-FF57-4B5C-BB7B-25DDE41D3851}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D9537-854A-4F30-85CF-DB282D62EB54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="143">
   <si>
     <t>Tank color:</t>
   </si>
@@ -435,6 +435,21 @@
   </si>
   <si>
     <t>3 * x + 5 + 8 + 10 + 11 + 20 * x</t>
+  </si>
+  <si>
+    <t>Canyon</t>
+  </si>
+  <si>
+    <t>New 14 invisible</t>
+  </si>
+  <si>
+    <t>New 12 guided missile</t>
+  </si>
+  <si>
+    <t>New 17 Airstrike</t>
+  </si>
+  <si>
+    <t>New 19 special ops</t>
   </si>
 </sst>
 </file>
@@ -924,7 +939,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,6 +2259,34 @@
         <v>136</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D9537-854A-4F30-85CF-DB282D62EB54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073A966-31D9-401F-9FC7-BA68AB55F2DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
   <si>
     <t>Tank color:</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>New 19 special ops</t>
+  </si>
+  <si>
+    <t>Teleporters</t>
+  </si>
+  <si>
+    <t>3 + 6 + 8 + 13</t>
   </si>
 </sst>
 </file>
@@ -1845,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,6 +2269,9 @@
       <c r="A42" s="10">
         <v>41</v>
       </c>
+      <c r="B42" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="C42" s="22" t="s">
         <v>138</v>
       </c>
@@ -2270,6 +2279,11 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" s="22" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073A966-31D9-401F-9FC7-BA68AB55F2DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B728C-DC9E-4B27-8713-7EBBD8817070}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="146">
   <si>
     <t>Tank color:</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>3 + 6 + 8 + 13</t>
+  </si>
+  <si>
+    <t>8 * 2 + 14 * 2</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1855,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,6 +2280,12 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="C43" s="22" t="s">
         <v>139</v>
       </c>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B728C-DC9E-4B27-8713-7EBBD8817070}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA224FF-FF01-450C-8CC6-188CC620127F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="147">
   <si>
     <t>Tank color:</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>8 * 2 + 14 * 2</t>
+  </si>
+  <si>
+    <t>3 * x + 10 + 14 + 16</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1858,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,6 +2294,12 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>146</v>
+      </c>
       <c r="C44" s="22" t="s">
         <v>143</v>
       </c>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA224FF-FF01-450C-8CC6-188CC620127F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0A0BA-869B-4158-83E8-27D42858FC2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="148">
   <si>
     <t>Tank color:</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>3 * x + 10 + 14 + 16</t>
+  </si>
+  <si>
+    <t>6 + 11 + 12 * 2</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,6 +1439,9 @@
       <c r="J11" s="10">
         <v>14</v>
       </c>
+      <c r="K11" s="10">
+        <v>42</v>
+      </c>
       <c r="L11" s="15" t="s">
         <v>40</v>
       </c>
@@ -1637,6 +1643,9 @@
       <c r="J16" s="10">
         <v>17</v>
       </c>
+      <c r="K16" s="10">
+        <v>46</v>
+      </c>
       <c r="L16" s="15" t="s">
         <v>54</v>
       </c>
@@ -1762,6 +1771,9 @@
       <c r="J19" s="10">
         <v>12</v>
       </c>
+      <c r="K19" s="10">
+        <v>44</v>
+      </c>
       <c r="L19" s="15" t="s">
         <v>59</v>
       </c>
@@ -1838,6 +1850,9 @@
       </c>
       <c r="J21" s="10">
         <v>19</v>
+      </c>
+      <c r="K21" s="10">
+        <v>48</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>64</v>
@@ -1855,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,18 +2320,50 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="C45" s="22" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+    </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
       <c r="C47" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
       <c r="C49" s="22" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0A0BA-869B-4158-83E8-27D42858FC2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9FA559-11D9-412A-8FB0-858AE9DE7E88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
   <si>
     <t>Tank color:</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>6 + 11 + 12 * 2</t>
+  </si>
+  <si>
+    <t>8 + 12 * 4</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,6 +2337,9 @@
       <c r="A46" s="10">
         <v>45</v>
       </c>
+      <c r="B46" s="22" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9FA559-11D9-412A-8FB0-858AE9DE7E88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A45456-5747-4BFC-B155-55C29574784C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="150">
   <si>
     <t>Tank color:</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>8 + 12 * 4</t>
+  </si>
+  <si>
+    <t>6 + 9 + 17</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1879,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,6 +2348,9 @@
       <c r="A47" s="10">
         <v>46</v>
       </c>
+      <c r="B47" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="C47" s="22" t="s">
         <v>141</v>
       </c>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A45456-5747-4BFC-B155-55C29574784C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A4F5A3-3F98-4519-B90C-1EAB4D9E8006}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
   <si>
     <t>Tank color:</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>6 + 9 + 17</t>
+  </si>
+  <si>
+    <t>3 * x + 4 + 12 * 2 + 17</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1882,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,6 +2362,9 @@
       <c r="A48" s="10">
         <v>47</v>
       </c>
+      <c r="B48" s="22" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A4F5A3-3F98-4519-B90C-1EAB4D9E8006}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2132A245-4115-4954-9881-E06E346180F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
   <si>
     <t>Tank color:</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>3 * x + 4 + 12 * 2 + 17</t>
+  </si>
+  <si>
+    <t>14 + 19 * 2 + 19 * x</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1885,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,6 +2373,9 @@
       <c r="A49" s="10">
         <v>48</v>
       </c>
+      <c r="B49" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="C49" s="22" t="s">
         <v>142</v>
       </c>

--- a/Tanks and behaviour.xlsx
+++ b/Tanks and behaviour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2132A245-4115-4954-9881-E06E346180F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80595F-8C2C-4EE0-827B-F9DA86EDA597}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t>Tank color:</t>
   </si>
@@ -477,6 +477,15 @@
   </si>
   <si>
     <t>14 + 19 * 2 + 19 * x</t>
+  </si>
+  <si>
+    <t>12 + 14 + 17 + 19</t>
+  </si>
+  <si>
+    <t>Allemaal</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488F745-BE2D-4DEE-B3B6-A30AC42C85F0}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,10 +2393,19 @@
       <c r="A50" s="10">
         <v>49</v>
       </c>
+      <c r="B50" s="22" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
